--- a/biology/Botanique/Alexander_Hanchett_Smith/Alexander_Hanchett_Smith.xlsx
+++ b/biology/Botanique/Alexander_Hanchett_Smith/Alexander_Hanchett_Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander Hanchett Smith, né le 12 décembre 1904 et mort le 12 décembre 1986 (à 82 ans) est un mycologue américain connu pour ses contributions en taxinomie et phylogénie des champignons, spécialement les agarics.
 </t>
